--- a/Powershell_Specific_Features.xlsx
+++ b/Powershell_Specific_Features.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314EBF48-D0FC-4C97-BD08-1073B634A266}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CDB3F1-441D-4313-A7C0-AD815B59224F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpecificFeatures" sheetId="1" r:id="rId1"/>
-    <sheet name="UsefulLinks" sheetId="2" r:id="rId2"/>
+    <sheet name="HelpfulCMDLets" sheetId="3" r:id="rId2"/>
+    <sheet name="UsefulLinks" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>The return values from the powershell command are actually objects.  So you can check the attributes and apply operations over these objects.</t>
   </si>
@@ -63,13 +64,149 @@
   </si>
   <si>
     <t xml:space="preserve">Its your duty to find and get familiar with good handful of CMDLETS to become more efficient. </t>
+  </si>
+  <si>
+    <t>Looping through the list of objects</t>
+  </si>
+  <si>
+    <t>You can use the following syntax to loop through the list of objects and perform some operation on each object.   Note:   $_ = below represents the current object</t>
+  </si>
+  <si>
+    <t>SYNTAX</t>
+  </si>
+  <si>
+    <t>{ $_........ }</t>
+  </si>
+  <si>
+    <t>Example:</t>
+  </si>
+  <si>
+    <t>Get-Process | Where-Object {$_.WorkingSet -gt 25000*1024}</t>
+  </si>
+  <si>
+    <t>The above command lists processes that have a Working Set greater than 25,000 kilo bytes(KB)</t>
+  </si>
+  <si>
+    <t>OUTPUT formats</t>
+  </si>
+  <si>
+    <t>format-wide</t>
+  </si>
+  <si>
+    <t>format-list</t>
+  </si>
+  <si>
+    <t>format-table</t>
+  </si>
+  <si>
+    <t>Though not much useful, you can output Objects in different formats in your display (i.e. formatting your output)</t>
+  </si>
+  <si>
+    <t>Invoke-Expression</t>
+  </si>
+  <si>
+    <t>Will launch appropriate program to open the file</t>
+  </si>
+  <si>
+    <t>Ex:   Invoke-Expression c:\temp\process.htm</t>
+  </si>
+  <si>
+    <t>ConvertToHtml</t>
+  </si>
+  <si>
+    <t>Export-CSV</t>
+  </si>
+  <si>
+    <t>Using .NET libraries in PowerShell</t>
+  </si>
+  <si>
+    <t>function [&lt;scope:&gt;]&lt;name&gt; [([type]$parameter1[,[type]$parameter2])]</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  param([type]$parameter1 [,[type]$parameter2])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  dynamicparam {&lt;statement list&gt;}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  begin {&lt;statement list&gt;}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  process {&lt;statement list&gt;}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  end {&lt;statement list&gt;}</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>Using functions in PowerShell</t>
+  </si>
+  <si>
+    <t>[math]::round(($result).Sum/1GB,2)</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>A script is essentially just a file where you have a series of commands that are executed and usually invoke that script from the command prompt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Extension - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.ps1</t>
+    </r>
+  </si>
+  <si>
+    <t>A SCRIPT HAVE 3 SECTIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAMETERS </t>
+  </si>
+  <si>
+    <t>FUNCTIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCESSING </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SCRIPT EXECUTION</t>
+  </si>
+  <si>
+    <t>https://www.powershelladmin.com/wiki/Powershell_check_if_folder_exists</t>
+  </si>
+  <si>
+    <t>Test-Path</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +218,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,6 +271,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>61599</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>30673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6538D3E5-6B88-4721-B4C7-CA0DA2BFB6B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="10789920"/>
+          <a:ext cx="7376799" cy="2225233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>411885</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>160097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CA930C-3352-4219-8DE7-74958FDCED0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="13167360"/>
+          <a:ext cx="4679085" cy="891617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,66 +650,305 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEDF02C-A06E-435A-9801-F49E9857C913}">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{FF3B8658-EFF5-4650-AB6E-5918015CC7DA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866B98FF-4EF4-45E5-B140-2450B5EAAB7D}">
   <dimension ref="B2:B4"/>
   <sheetViews>
